--- a/numberSheet/sheet.xlsx
+++ b/numberSheet/sheet.xlsx
@@ -1164,7 +1164,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="7.1640625" defaultRowHeight="43" customHeight="1" x14ac:dyDescent="0"/>
